--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1791078.040793082</v>
+        <v>1823656.25530828</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584663</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>20.05153280550059</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>41.68185456134403</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>212.2853856434421</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>180.1159031720508</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.2318777926909</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>131.7659851933074</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>87.03548957755388</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>122.2716936111518</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.97975510385844</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>204.6468319075277</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1494,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>53.92880121528923</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>226.8900869672229</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1537,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884901</v>
       </c>
       <c r="G13" t="n">
-        <v>10.54215419659306</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704633</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>137.7215766489115</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>57.46946760180045</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1689,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1734,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>53.92880121528923</v>
+        <v>3.826595813418735</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884901</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620183</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704633</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>147.3472002825668</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>191.5193594599722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>76.97307036798026</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1935,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>46.42671957066466</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,13 +1973,13 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>219.9881595201819</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1986,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.83786409935476</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>16.83786409935501</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>194.0351564050542</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.77277310812845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,16 +2168,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,7 +2216,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>224.197474524972</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>87.73906239567783</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704633</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>136.2566308880119</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
@@ -2336,7 +2338,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>24.97975510385888</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>100.7798377874516</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>94.06259899123532</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>66.55239406957095</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2451,7 +2453,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>54.44663919424225</v>
+        <v>268.9755074231835</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>42.97874499920351</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>200.3392633237356</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2637,13 +2639,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>77.00596341439389</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>137.1825731181321</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.6932352543218</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>77.50776027739572</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -2852,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>335.0002200229878</v>
       </c>
       <c r="X29" t="n">
-        <v>59.08128201480564</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>37.22402582628284</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>181.8453877183258</v>
       </c>
     </row>
     <row r="31">
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>43.26585203414584</v>
       </c>
       <c r="J31" t="n">
-        <v>20.81789375578485</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8.653309530864139</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>330.3883839606183</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3120,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>130.783636826433</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
@@ -3156,10 +3158,10 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3168,10 +3170,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>94.38897766723466</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3199,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.662075222178741</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>74.79472562303474</v>
       </c>
       <c r="I34" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>344.9005018337194</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>209.4893497036894</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
@@ -3326,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>120.2062413692235</v>
+        <v>146.958871578496</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,28 +3426,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>135.880376802264</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.76093431596196</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>117.8895498199116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>35.32552684533199</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3588,19 +3590,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>45.59910121103227</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3639,10 +3641,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>188.4551676688973</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>150.3128423247258</v>
       </c>
       <c r="D40" t="n">
-        <v>136.1664131224704</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
-        <v>144.632107855238</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>62.7275742219763</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3834,10 +3836,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>29.38391736390379</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121528968</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.9289512464142</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>213.2605954932952</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>165.5193880286262</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>340.1306905021105</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>53.92880121528968</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4119,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>2.315214054765956</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.83786409935501</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.83786409935501</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4373,7 +4375,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.5233881080029</v>
+        <v>369.484465818592</v>
       </c>
       <c r="C3" t="n">
-        <v>279.5233881080029</v>
+        <v>369.484465818592</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5889784467516</v>
+        <v>369.484465818592</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5889784467516</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.5233881080029</v>
+        <v>369.484465818592</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4519,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>772.0302844130649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
         <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4741,28 +4743,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
         <v>19.28114311021272</v>
@@ -4884,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>840.5503942872506</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>605.3982860555079</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W9" t="n">
-        <v>361.9495094114078</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X9" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2319.517746219732</v>
+        <v>1584.684223757014</v>
       </c>
       <c r="C11" t="n">
-        <v>1950.55522927932</v>
+        <v>1215.721706816602</v>
       </c>
       <c r="D11" t="n">
-        <v>1592.28953067257</v>
+        <v>1215.721706816602</v>
       </c>
       <c r="E11" t="n">
-        <v>1206.501278074326</v>
+        <v>829.9334542183578</v>
       </c>
       <c r="F11" t="n">
-        <v>795.5153732847182</v>
+        <v>418.9475494287503</v>
       </c>
       <c r="G11" t="n">
-        <v>377.243605767603</v>
+        <v>418.9475494287503</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164431</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164431</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
         <v>392.9020949275675</v>
@@ -5081,10 +5083,10 @@
         <v>2344.749822082215</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082215</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082215</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5123,16 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K12" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>642.6780758583283</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213676</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O12" t="n">
         <v>2039.343247810002</v>
@@ -5142,16 +5144,16 @@
         <v>2344.749822082215</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.30608329687</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="S12" t="n">
-        <v>2284.30608329687</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="T12" t="n">
-        <v>2284.30608329687</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U12" t="n">
-        <v>2056.125618951028</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V12" t="n">
         <v>1826.94371292353</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="C13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="D13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="E13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="F13" t="n">
-        <v>412.4263787765002</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
         <v>401.7777381738809</v>
@@ -5218,31 +5220,31 @@
         <v>607.7685734363099</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.7843137019197</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="T13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="U13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="V13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="W13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="X13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>940.7584696660695</v>
+        <v>1157.192027497622</v>
       </c>
       <c r="C14" t="n">
-        <v>571.7959527256578</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="D14" t="n">
-        <v>571.7959527256578</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="E14" t="n">
-        <v>186.0077001274136</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F14" t="n">
-        <v>186.0077001274136</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164431</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K14" t="n">
         <v>392.9020949275675</v>
@@ -5291,37 +5293,37 @@
         <v>1610.799342072556</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P14" t="n">
         <v>2224.886645733486</v>
       </c>
       <c r="Q14" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082215</v>
+        <v>2286.69985480767</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082215</v>
+        <v>2286.69985480767</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082215</v>
+        <v>2286.69985480767</v>
       </c>
       <c r="U14" t="n">
-        <v>2090.963399967083</v>
+        <v>2286.69985480767</v>
       </c>
       <c r="V14" t="n">
-        <v>2090.963399967083</v>
+        <v>2286.69985480767</v>
       </c>
       <c r="W14" t="n">
-        <v>2090.963399967083</v>
+        <v>1933.931199537556</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.497641706003</v>
+        <v>1933.931199537556</v>
       </c>
       <c r="Y14" t="n">
-        <v>1327.358309730191</v>
+        <v>1543.791867561744</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D15" t="n">
         <v>665.4917812623953</v>
@@ -5352,7 +5354,7 @@
         <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
         <v>106.8945330050502</v>
@@ -5367,40 +5369,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213676</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810002</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2290.276285501115</v>
+        <v>2340.884573785833</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>2141.341875839864</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1913.161411494021</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1678.009303262279</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1423.771946534077</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1215.920446328544</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>1008.16014756359</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164431</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164431</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164431</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
-        <v>46.89499644164431</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
         <v>87.46721626702973</v>
@@ -5455,31 +5457,31 @@
         <v>607.7685734363099</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.7843137019197</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826209</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="T16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="U16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="V16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="W16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363099</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164431</v>
+        <v>1568.010650042282</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164431</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164431</v>
+        <v>840.7824344951202</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164431</v>
+        <v>454.994181896876</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164431</v>
+        <v>454.994181896876</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164431</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
         <v>762.5916738244548</v>
@@ -5525,40 +5527,40 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O17" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P17" t="n">
         <v>2224.886645733486</v>
       </c>
       <c r="Q17" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.554709220191</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>1941.57194985177</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>1687.785527736637</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>1356.722640393066</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W17" t="n">
-        <v>1003.953985122952</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X17" t="n">
-        <v>630.4882268618724</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y17" t="n">
-        <v>240.3488948860606</v>
+        <v>1954.610490106404</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>829.9842651606477</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>655.5312358795208</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>506.5968262182695</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>347.359371212814</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>200.824813239699</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>200.824813239699</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>93.79067277564903</v>
       </c>
       <c r="I18" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076316</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161154</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832897</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671463</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.884810267789</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
         <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.30608329687</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2284.30608329687</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>2284.30608329687</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>998.1996021807158</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702973</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200977</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362073</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228446</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496712</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S19" t="n">
-        <v>590.7606299016081</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T19" t="n">
-        <v>590.7606299016081</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U19" t="n">
-        <v>301.5794846475312</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164431</v>
+        <v>63.90293997634635</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1159.911464587051</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="C20" t="n">
-        <v>790.948947646639</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="D20" t="n">
-        <v>432.6832490398886</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="E20" t="n">
-        <v>46.89499644164431</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164431</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164431</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164431</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O20" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P20" t="n">
         <v>2224.886645733486</v>
       </c>
       <c r="Q20" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082215</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082215</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082215</v>
+        <v>1891.186056649368</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.749822082215</v>
+        <v>1637.399634534236</v>
       </c>
       <c r="V20" t="n">
-        <v>2013.686934738645</v>
+        <v>1306.336747190665</v>
       </c>
       <c r="W20" t="n">
-        <v>2013.686934738645</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="X20" t="n">
-        <v>1640.221176477565</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="Y20" t="n">
-        <v>1546.511304651172</v>
+        <v>953.5680919205511</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>623.8511338211875</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C21" t="n">
-        <v>449.3981045400606</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D21" t="n">
-        <v>300.4636948788093</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E21" t="n">
-        <v>300.4636948788093</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F21" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
         <v>106.8945330050502</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076316</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161154</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832897</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671463</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.884810267789</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
         <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.30608329687</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
         <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251456</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1697.067734771686</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.915626539944</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.678269811742</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>999.8267696062094</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y21" t="n">
-        <v>792.0664708412555</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164431</v>
+        <v>426.1201086060704</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164431</v>
+        <v>426.1201086060704</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164431</v>
+        <v>276.0034691937346</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164431</v>
+        <v>276.0034691937346</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164431</v>
+        <v>276.0034691937346</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164431</v>
+        <v>276.0034691937346</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164431</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702973</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200977</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362073</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228446</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496712</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.7843137019197</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R22" t="n">
-        <v>412.4263787765002</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S22" t="n">
-        <v>274.7934182835589</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T22" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U22" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V22" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W22" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.89499644164431</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>795.5153732847182</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C23" t="n">
-        <v>795.5153732847182</v>
+        <v>1975.787305141804</v>
       </c>
       <c r="D23" t="n">
-        <v>795.5153732847182</v>
+        <v>1617.521606535054</v>
       </c>
       <c r="E23" t="n">
-        <v>795.5153732847182</v>
+        <v>1231.733353936809</v>
       </c>
       <c r="F23" t="n">
-        <v>795.5153732847182</v>
+        <v>820.7474491472019</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>402.4756816300867</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164431</v>
+        <v>72.12707230412803</v>
       </c>
       <c r="I23" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
@@ -6008,31 +6010,31 @@
         <v>2224.886645733486</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2242.952006135295</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2242.952006135295</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>1911.889118791724</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1559.12046352161</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>1185.65470526053</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y23" t="n">
-        <v>795.5153732847182</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>850.3132293009571</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C24" t="n">
-        <v>675.8602000198301</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D24" t="n">
-        <v>526.9257903585789</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
-        <v>367.6883353531234</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F24" t="n">
-        <v>221.1537773800083</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
         <v>106.8945330050502</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832897</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671463</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.884810267789</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
         <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.30608329687</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
         <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251456</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1923.529830251456</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1688.377722019713</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W24" t="n">
-        <v>1434.140365291512</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1226.288865085979</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y24" t="n">
-        <v>1018.528566321025</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="I25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="J25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702973</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L25" t="n">
-        <v>194.9121237200977</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5868368362073</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N25" t="n">
-        <v>444.7554581228446</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O25" t="n">
-        <v>545.2763053496712</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P25" t="n">
-        <v>607.7685734363099</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363099</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363099</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S25" t="n">
-        <v>391.0727469424306</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T25" t="n">
-        <v>391.0727469424306</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U25" t="n">
-        <v>101.8916016883537</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V25" t="n">
-        <v>101.8916016883537</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="W25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="X25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.89499644164431</v>
+        <v>1783.876245087549</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>992.1819995350043</v>
+        <v>887.0820275660653</v>
       </c>
       <c r="C26" t="n">
-        <v>623.2194825945925</v>
+        <v>887.0820275660653</v>
       </c>
       <c r="D26" t="n">
-        <v>623.2194825945925</v>
+        <v>887.0820275660653</v>
       </c>
       <c r="E26" t="n">
-        <v>623.2194825945925</v>
+        <v>501.2937749678211</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2335778049849</v>
+        <v>90.30787017821353</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O26" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q26" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082215</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082215</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082215</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082215</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V26" t="n">
-        <v>2344.749822082215</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="W26" t="n">
-        <v>2142.386929836018</v>
+        <v>1663.821199605999</v>
       </c>
       <c r="X26" t="n">
-        <v>1768.921171574938</v>
+        <v>1663.821199605999</v>
       </c>
       <c r="Y26" t="n">
-        <v>1378.781839599126</v>
+        <v>1273.681867630187</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>683.1072072262029</v>
+        <v>917.728611972203</v>
       </c>
       <c r="C27" t="n">
-        <v>508.654177945076</v>
+        <v>743.275582691076</v>
       </c>
       <c r="D27" t="n">
-        <v>359.7197682838247</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>359.7197682838247</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
         <v>359.7197682838247</v>
@@ -6300,55 +6302,55 @@
         <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
         <v>106.8945330050502</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076323</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.568096156131</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082215</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.30608329687</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>1984.504272522545</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U27" t="n">
-        <v>1756.323808176702</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V27" t="n">
-        <v>1521.171699944959</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="W27" t="n">
-        <v>1266.934343216758</v>
+        <v>1501.555747962758</v>
       </c>
       <c r="X27" t="n">
-        <v>1059.082843011225</v>
+        <v>1293.704247757225</v>
       </c>
       <c r="Y27" t="n">
-        <v>851.322544246271</v>
+        <v>1085.943948992271</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>353.0840852304231</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>353.0840852304231</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>353.0840852304231</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>205.1709916480299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>205.1709916480299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702973</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200977</v>
       </c>
       <c r="M28" t="n">
-        <v>318.5868368362073</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228446</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O28" t="n">
-        <v>545.2763053496712</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P28" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R28" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S28" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363099</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363099</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="V28" t="n">
-        <v>353.0840852304231</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="W28" t="n">
-        <v>353.0840852304231</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="X28" t="n">
-        <v>353.0840852304231</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="Y28" t="n">
-        <v>353.0840852304231</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>960.8539546480588</v>
+        <v>570.4992764117354</v>
       </c>
       <c r="C29" t="n">
-        <v>960.8539546480588</v>
+        <v>570.4992764117354</v>
       </c>
       <c r="D29" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E29" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F29" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H29" t="n">
         <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
         <v>137.0453218915535</v>
@@ -6485,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T29" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U29" t="n">
-        <v>2090.963399967083</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V29" t="n">
-        <v>1759.900512623512</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W29" t="n">
-        <v>1407.131857353398</v>
+        <v>943.9650346728154</v>
       </c>
       <c r="X29" t="n">
-        <v>1347.453794712181</v>
+        <v>570.4992764117354</v>
       </c>
       <c r="Y29" t="n">
-        <v>1347.453794712181</v>
+        <v>570.4992764117354</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551145</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739875</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127362</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>261.1452999255818</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076313</v>
+        <v>121.6684232076323</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161152</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832896</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671463</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.884810267789</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
         <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.30608329687</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
         <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251456</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905613</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673871</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.959900945669</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401364</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751825</v>
+        <v>814.4261909236466</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2123.957242938685</v>
+        <v>90.59787728421588</v>
       </c>
       <c r="C31" t="n">
-        <v>1955.021060010778</v>
+        <v>90.59787728421588</v>
       </c>
       <c r="D31" t="n">
-        <v>1804.904420598443</v>
+        <v>90.59787728421588</v>
       </c>
       <c r="E31" t="n">
-        <v>1804.904420598443</v>
+        <v>90.59787728421588</v>
       </c>
       <c r="F31" t="n">
-        <v>1804.904420598443</v>
+        <v>90.59787728421588</v>
       </c>
       <c r="G31" t="n">
-        <v>1804.904420598443</v>
+        <v>90.59787728421588</v>
       </c>
       <c r="H31" t="n">
-        <v>1804.904420598443</v>
+        <v>90.59787728421588</v>
       </c>
       <c r="I31" t="n">
-        <v>1804.904420598443</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912934</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366002</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482112</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995576</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082215</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082215</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082215</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082215</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082215</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082215</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V31" t="n">
-        <v>2344.749822082215</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="W31" t="n">
-        <v>2344.749822082215</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="X31" t="n">
-        <v>2344.749822082215</v>
+        <v>90.59787728421588</v>
       </c>
       <c r="Y31" t="n">
-        <v>2123.957242938685</v>
+        <v>90.59787728421588</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1159.911464587051</v>
+        <v>1215.241994772168</v>
       </c>
       <c r="C32" t="n">
-        <v>790.948947646639</v>
+        <v>1215.241994772168</v>
       </c>
       <c r="D32" t="n">
-        <v>432.6832490398886</v>
+        <v>1215.241994772168</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164431</v>
+        <v>1215.241994772168</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164431</v>
+        <v>804.2560899825608</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164431</v>
+        <v>385.9843224654456</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164431</v>
+        <v>55.63571313948688</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
         <v>137.0453218915535</v>
@@ -6704,7 +6706,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376118</v>
@@ -6722,28 +6724,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U32" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V32" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W32" t="n">
-        <v>2270.376276991245</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X32" t="n">
-        <v>1936.650636626984</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y32" t="n">
-        <v>1546.511304651172</v>
+        <v>1601.84183483629</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>982.9090180005292</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>808.4559887194022</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>659.5215790581509</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>500.2841240526954</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>353.7495660795804</v>
       </c>
       <c r="G33" t="n">
         <v>221.6448824165167</v>
@@ -6774,55 +6776,55 @@
         <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498441</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583279</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925502</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810002</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082215</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.30608329687</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251456</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905613</v>
+        <v>2056.125618951028</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673871</v>
+        <v>1820.973510719286</v>
       </c>
       <c r="W33" t="n">
-        <v>1364.854855989795</v>
+        <v>1566.736153991084</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1358.884653785551</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>1151.124355020597</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>353.0840852304233</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="C34" t="n">
-        <v>353.0840852304233</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="D34" t="n">
-        <v>353.0840852304233</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="E34" t="n">
-        <v>353.0840852304233</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="F34" t="n">
-        <v>353.0840852304233</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="G34" t="n">
-        <v>346.3547163191316</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="H34" t="n">
-        <v>187.3781536425449</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164431</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702973</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L34" t="n">
         <v>194.9121237200977</v>
@@ -6892,16 +6894,16 @@
         <v>607.7685734363101</v>
       </c>
       <c r="V34" t="n">
-        <v>353.0840852304233</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W34" t="n">
-        <v>353.0840852304233</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="X34" t="n">
-        <v>353.0840852304233</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="Y34" t="n">
-        <v>353.0840852304233</v>
+        <v>318.3514033993495</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>788.2295105572106</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="C35" t="n">
-        <v>788.2295105572106</v>
+        <v>560.6179230915702</v>
       </c>
       <c r="D35" t="n">
-        <v>788.2295105572106</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E35" t="n">
-        <v>788.2295105572106</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F35" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376118</v>
@@ -6959,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T35" t="n">
-        <v>2133.144418341115</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U35" t="n">
-        <v>1879.357996225983</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>1548.295108882412</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W35" t="n">
-        <v>1548.295108882412</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="X35" t="n">
-        <v>1174.829350621332</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="Y35" t="n">
-        <v>1174.829350621332</v>
+        <v>929.5804400319819</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>701.8699246762143</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G36" t="n">
         <v>221.6448824165167</v>
@@ -7017,49 +7019,49 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1775.086525626713</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1539.934417394971</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1285.697060666769</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1077.845560461236</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>870.0852616962823</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2090.065333876329</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="C37" t="n">
-        <v>1921.129150948422</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="D37" t="n">
-        <v>1783.876245087549</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="E37" t="n">
-        <v>1783.876245087549</v>
+        <v>305.4975449284975</v>
       </c>
       <c r="F37" t="n">
-        <v>1783.876245087549</v>
+        <v>261.2945809729804</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.876245087549</v>
+        <v>261.2945809729804</v>
       </c>
       <c r="H37" t="n">
-        <v>1783.876245087549</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.876245087549</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="T37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="U37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="V37" t="n">
-        <v>2090.065333876329</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="W37" t="n">
-        <v>2090.065333876329</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="X37" t="n">
-        <v>2090.065333876329</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="Y37" t="n">
-        <v>2090.065333876329</v>
+        <v>453.4106385108906</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.89499644164432</v>
+        <v>809.8055623376267</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>440.843045397215</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>82.5773467904645</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>82.5773467904645</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>82.5773467904645</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>82.5773467904645</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7199,25 +7201,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129221</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.198404760799</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>1939.313389647674</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319819</v>
+        <v>1586.54473437756</v>
       </c>
       <c r="X38" t="n">
-        <v>556.1146817709021</v>
+        <v>1586.54473437756</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.9753497950903</v>
+        <v>1196.405402401748</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551149</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739879</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127367</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E39" t="n">
-        <v>298.7453260127367</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F39" t="n">
-        <v>298.7453260127367</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G39" t="n">
-        <v>160.6704401454287</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7287,16 +7289,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673871</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401369</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.348101975183</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.4368278784831</v>
+        <v>198.7261503050038</v>
       </c>
       <c r="C40" t="n">
-        <v>184.4368278784831</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
         <v>46.89499644164432</v>
@@ -7351,31 +7353,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q40" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R40" t="n">
-        <v>412.4263787765004</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S40" t="n">
-        <v>412.4263787765004</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="T40" t="n">
-        <v>412.4263787765004</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="U40" t="n">
-        <v>412.4263787765004</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="V40" t="n">
-        <v>412.4263787765004</v>
+        <v>198.7261503050038</v>
       </c>
       <c r="W40" t="n">
-        <v>412.4263787765004</v>
+        <v>198.7261503050038</v>
       </c>
       <c r="X40" t="n">
-        <v>184.4368278784831</v>
+        <v>198.7261503050038</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.4368278784831</v>
+        <v>198.7261503050038</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1201.934852436247</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C41" t="n">
-        <v>1201.934852436247</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D41" t="n">
-        <v>843.6691538294961</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E41" t="n">
-        <v>457.8809012312519</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
         <v>46.89499644164432</v>
@@ -7409,13 +7411,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376118</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S41" t="n">
-        <v>2198.656783844602</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T41" t="n">
-        <v>1978.67402447618</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U41" t="n">
-        <v>1978.67402447618</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V41" t="n">
-        <v>1978.67402447618</v>
+        <v>1550.050796562862</v>
       </c>
       <c r="W41" t="n">
-        <v>1978.67402447618</v>
+        <v>1550.050796562862</v>
       </c>
       <c r="X41" t="n">
-        <v>1978.67402447618</v>
+        <v>1550.050796562862</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.534692500368</v>
+        <v>1159.911464587051</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498445</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583284</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7515,25 +7517,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.276285501115</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>197.01163585398</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="C43" t="n">
-        <v>197.01163585398</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702974</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200977</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362074</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228447</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496714</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>566.7843137019199</v>
+        <v>2303.765562347825</v>
       </c>
       <c r="R43" t="n">
-        <v>412.4263787765004</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S43" t="n">
-        <v>412.4263787765004</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="T43" t="n">
-        <v>412.4263787765004</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="U43" t="n">
-        <v>412.4263787765004</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="V43" t="n">
-        <v>197.01163585398</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="W43" t="n">
-        <v>197.01163585398</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="X43" t="n">
-        <v>197.01163585398</v>
+        <v>1979.782424143199</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.01163585398</v>
+        <v>1979.782424143199</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>759.4238674245919</v>
+        <v>737.6905774507518</v>
       </c>
       <c r="C44" t="n">
-        <v>390.4613504841802</v>
+        <v>570.4992764117354</v>
       </c>
       <c r="D44" t="n">
-        <v>390.4613504841802</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E44" t="n">
-        <v>390.4613504841802</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F44" t="n">
-        <v>390.4613504841802</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915533</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7676,22 +7678,22 @@
         <v>2087.181164129221</v>
       </c>
       <c r="T44" t="n">
-        <v>2087.181164129221</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U44" t="n">
-        <v>1833.394742014088</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="V44" t="n">
-        <v>1502.331854670518</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="W44" t="n">
-        <v>1149.563199400404</v>
+        <v>1514.429749490685</v>
       </c>
       <c r="X44" t="n">
-        <v>1149.563199400404</v>
+        <v>1514.429749490685</v>
       </c>
       <c r="Y44" t="n">
-        <v>759.4238674245919</v>
+        <v>1124.290417514874</v>
       </c>
     </row>
     <row r="45">
@@ -7749,22 +7751,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T45" t="n">
-        <v>2290.276285501115</v>
+        <v>2084.763385350901</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1621.430812773316</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X45" t="n">
         <v>1364.854855989795</v>
@@ -7846,7 +7848,7 @@
         <v>63.90293997634635</v>
       </c>
       <c r="X46" t="n">
-        <v>63.90293997634635</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
         <v>46.89499644164432</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>200.8922269696947</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>330.2893092338454</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9015,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>415.7693643006696</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970533</v>
       </c>
       <c r="Q15" t="n">
         <v>57.08896698613916</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K18" t="n">
-        <v>47.90390621998465</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998465</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574063</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>249.1437329574059</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998529</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>254.8897585970528</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613916</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>65.48544285212002</v>
       </c>
       <c r="K30" t="n">
-        <v>108.5094987082732</v>
+        <v>108.5094987082741</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K33" t="n">
-        <v>200.8922269696942</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>261.4978194579835</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7540865596221</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.3982913251714</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>143.6184697512204</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>5.910500182202355</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640822</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9044066543626</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704633</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
         <v>214.5288682289405</v>
@@ -23501,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>276.3674731930324</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006115</v>
+        <v>16.16034203826071</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23549,16 +23551,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23577,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23622,10 +23624,10 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>105.692418333161</v>
+        <v>155.7946237350315</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640822</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620183</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704633</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>78.27223734092863</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>191.2144822035084</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>337.1159794739637</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006115</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23823,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.6118684850496</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5.910500182202384</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23874,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23911,7 +23913,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620183</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704633</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>197.6910041295858</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>269.685134237236</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006115</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>23.74777536968321</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>293.4651655479252</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,16 +24056,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>53.38246657340341</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571426</v>
@@ -24102,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.701185177412356</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,13 +24144,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>69.64773465414304</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620183</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>78.27223734092863</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24206,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>138.7054404458483</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006115</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>117.0030939872859</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>53.38246657340343</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>70.14174293906392</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>67.03858805571426</v>
@@ -24339,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24385,7 +24387,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620183</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704633</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>232.0763591423487</v>
+        <v>17.5474909134075</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>371.1103048427404</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006115</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
@@ -24497,16 +24499,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>148.9017053936774</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24525,13 +24527,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>70.43910215024486</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>60.36469784837752</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>10.75332559663386</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
@@ -24622,7 +24624,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620183</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704633</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
@@ -24652,7 +24654,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>141.0768930746991</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>14.24074869442524</v>
       </c>
       <c r="X29" t="n">
-        <v>310.6498186636634</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>120.4210546291181</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>23.83730805897855</v>
       </c>
     </row>
     <row r="31">
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,10 +24858,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>95.81247359474574</v>
       </c>
       <c r="J31" t="n">
-        <v>34.05089788041697</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>155.0318860188431</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
@@ -24977,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>39.34271671785075</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25008,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5.910500182201844</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,10 +25058,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>157.3060054936849</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7844856287769</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>82.59207142678613</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>9.782539786963525</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>8.293582071048036</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25245,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>105.6924183331608</v>
+        <v>78.93978812388835</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25312,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>12.73509621594837</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6601137069693</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
@@ -25369,7 +25371,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>264.844291843569</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25408,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>291.7195963873671</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25476,19 +25478,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>60.36469784837715</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25527,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>63.23981549202233</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>16.933978773902</v>
       </c>
       <c r="D40" t="n">
-        <v>12.44905989574198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -25673,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>36.73105387816588</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>265.0246842481586</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25722,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,10 +25757,10 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>130.2373021845464</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512199</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,10 +25806,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>46.59991698252631</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
@@ -25843,7 +25845,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
-        <v>38.87704783053283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>199.7535037423814</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>73.95835933983346</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>143.6184697512199</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26007,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>203.4577711487115</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>208.8717912896821</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.7467892527398</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>590382.3759752396</v>
+        <v>590382.3759752397</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>590382.3759752397</v>
+        <v>590382.3759752396</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>590382.3759752398</v>
+        <v>590382.3759752396</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>590382.3759752394</v>
+        <v>590382.3759752396</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>590382.3759752398</v>
+        <v>590382.3759752397</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>590382.3759752396</v>
+        <v>590382.3759752397</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>590382.3759752398</v>
+        <v>590382.3759752396</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>590382.3759752396</v>
+        <v>590382.3759752397</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>590382.3759752396</v>
+        <v>590382.3759752398</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117844</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>343688.9296934798</v>
+      </c>
+      <c r="F2" t="n">
         <v>343688.92969348</v>
-      </c>
-      <c r="F2" t="n">
-        <v>343688.9296934798</v>
       </c>
       <c r="G2" t="n">
         <v>343688.92969348</v>
@@ -26332,25 +26334,25 @@
         <v>343688.9296934799</v>
       </c>
       <c r="I2" t="n">
+        <v>343688.92969348</v>
+      </c>
+      <c r="J2" t="n">
         <v>343688.9296934799</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>343688.92969348</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343688.92969348</v>
+      </c>
+      <c r="M2" t="n">
         <v>343688.9296934798</v>
       </c>
-      <c r="K2" t="n">
-        <v>343688.9296934801</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>343688.9296934799</v>
       </c>
-      <c r="M2" t="n">
-        <v>343688.9296934799</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343688.92969348</v>
-      </c>
       <c r="O2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934798</v>
       </c>
       <c r="P2" t="n">
         <v>343688.9296934799</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.874880399554969e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007597</v>
+        <v>86018.53382007596</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26442,7 +26444,7 @@
         <v>9200.106879687155</v>
       </c>
       <c r="K4" t="n">
-        <v>9200.106879687155</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="L4" t="n">
         <v>9200.106879687155</v>
@@ -26479,25 +26481,25 @@
         <v>42221.72212544654</v>
       </c>
       <c r="F5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="G5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="H5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="I5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="J5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="K5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="L5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="M5" t="n">
         <v>42221.72212544655</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117133.8114126732</v>
+        <v>117133.8114126729</v>
       </c>
       <c r="C6" t="n">
-        <v>197903.2429442207</v>
+        <v>197903.242944221</v>
       </c>
       <c r="D6" t="n">
         <v>197903.2429442207</v>
       </c>
       <c r="E6" t="n">
-        <v>-53345.24209060623</v>
+        <v>-53345.24209060641</v>
       </c>
       <c r="F6" t="n">
+        <v>292267.1006883463</v>
+      </c>
+      <c r="G6" t="n">
         <v>292267.1006883461</v>
-      </c>
-      <c r="G6" t="n">
-        <v>292267.1006883463</v>
       </c>
       <c r="H6" t="n">
         <v>292267.1006883462</v>
       </c>
       <c r="I6" t="n">
+        <v>292267.1006883463</v>
+      </c>
+      <c r="J6" t="n">
+        <v>229207.15808924</v>
+      </c>
+      <c r="K6" t="n">
+        <v>292267.1006883463</v>
+      </c>
+      <c r="L6" t="n">
+        <v>292267.1006883463</v>
+      </c>
+      <c r="M6" t="n">
+        <v>206248.5668682701</v>
+      </c>
+      <c r="N6" t="n">
         <v>292267.1006883462</v>
       </c>
-      <c r="J6" t="n">
-        <v>229207.1580892399</v>
-      </c>
-      <c r="K6" t="n">
-        <v>292267.1006883464</v>
-      </c>
-      <c r="L6" t="n">
-        <v>292267.1006883462</v>
-      </c>
-      <c r="M6" t="n">
-        <v>206248.5668682702</v>
-      </c>
-      <c r="N6" t="n">
-        <v>292267.1006883463</v>
-      </c>
       <c r="O6" t="n">
-        <v>292267.1006883463</v>
+        <v>292267.1006883461</v>
       </c>
       <c r="P6" t="n">
         <v>292267.1006883462</v>
@@ -26750,16 +26752,16 @@
         <v>301.9048087062785</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062785</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062785</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062785</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062785</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="K3" t="n">
         <v>301.9048087062786</v>
@@ -26799,25 +26801,25 @@
         <v>586.1874555205538</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205538</v>
+        <v>586.187455520554</v>
       </c>
       <c r="G4" t="n">
-        <v>586.1874555205538</v>
+        <v>586.187455520554</v>
       </c>
       <c r="H4" t="n">
-        <v>586.1874555205538</v>
+        <v>586.187455520554</v>
       </c>
       <c r="I4" t="n">
-        <v>586.1874555205538</v>
+        <v>586.187455520554</v>
       </c>
       <c r="J4" t="n">
-        <v>586.1874555205538</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="K4" t="n">
-        <v>586.1874555205538</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="L4" t="n">
-        <v>586.1874555205538</v>
+        <v>586.187455520554</v>
       </c>
       <c r="M4" t="n">
         <v>586.187455520554</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.411462056027906e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,25 +27463,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>125.0176795878833</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>164.0008412159603</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>203.0173518716929</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>169.1250655453622</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,22 +27703,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4132026627100629</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>119.9289979676122</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27825,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>319.8405561641575</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>103.669688469823</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27997,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>16.10061421062355</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28029,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.213687673191068</v>
+        <v>1.213687673191069</v>
       </c>
       <c r="H17" t="n">
-        <v>12.42967888306803</v>
+        <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
         <v>46.79069402069872</v>
       </c>
       <c r="J17" t="n">
-        <v>103.0102241525005</v>
+        <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
         <v>154.3856233586785</v>
@@ -32257,16 +32259,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108853</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S17" t="n">
-        <v>27.6569078528415</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393905</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528546</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757689</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H18" t="n">
         <v>6.271645177087033</v>
@@ -32312,7 +32314,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454667</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32324,7 +32326,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N18" t="n">
-        <v>168.8929552025812</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
         <v>154.5040580932971</v>
@@ -32333,10 +32335,10 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988236</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R18" t="n">
-        <v>40.3185327551517</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S18" t="n">
         <v>12.06195155538763</v>
@@ -32345,7 +32347,7 @@
         <v>2.61745772831198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051113</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031251</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618697</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I19" t="n">
-        <v>16.37214929836671</v>
+        <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
         <v>38.49038848047095</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354489</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823736</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069441</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545557</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598721</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292339</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464805</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100415</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031732</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T19" t="n">
-        <v>2.326151804786079</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
         <v>0.02969555495471595</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.213687673191068</v>
+        <v>1.213687673191069</v>
       </c>
       <c r="H20" t="n">
-        <v>12.42967888306803</v>
+        <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
         <v>46.79069402069872</v>
       </c>
       <c r="J20" t="n">
-        <v>103.0102241525005</v>
+        <v>103.0102241525006</v>
       </c>
       <c r="K20" t="n">
         <v>154.3856233586785</v>
@@ -32494,16 +32496,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108853</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S20" t="n">
-        <v>27.6569078528415</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393905</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528546</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757689</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H21" t="n">
         <v>6.271645177087033</v>
@@ -32549,7 +32551,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454667</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32561,7 +32563,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
-        <v>168.8929552025812</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
         <v>154.5040580932971</v>
@@ -32570,10 +32572,10 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988236</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R21" t="n">
-        <v>40.3185327551517</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
         <v>12.06195155538763</v>
@@ -32582,7 +32584,7 @@
         <v>2.61745772831198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04272237859051113</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031251</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618697</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I22" t="n">
-        <v>16.37214929836671</v>
+        <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
         <v>38.49038848047095</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354489</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823736</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069441</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545557</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598721</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292339</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464805</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100415</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031732</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786079</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
         <v>0.02969555495471595</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.213687673191068</v>
+        <v>1.213687673191069</v>
       </c>
       <c r="H23" t="n">
-        <v>12.42967888306803</v>
+        <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
         <v>46.79069402069872</v>
       </c>
       <c r="J23" t="n">
-        <v>103.0102241525005</v>
+        <v>103.0102241525006</v>
       </c>
       <c r="K23" t="n">
         <v>154.3856233586785</v>
@@ -32731,16 +32733,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108853</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S23" t="n">
-        <v>27.6569078528415</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393905</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09709501385528546</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757689</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H24" t="n">
         <v>6.271645177087033</v>
@@ -32786,7 +32788,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454667</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32798,7 +32800,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
-        <v>168.8929552025812</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
         <v>154.5040580932971</v>
@@ -32807,10 +32809,10 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.89280709988236</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R24" t="n">
-        <v>40.3185327551517</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S24" t="n">
         <v>12.06195155538763</v>
@@ -32819,7 +32821,7 @@
         <v>2.61745772831198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04272237859051113</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031251</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H25" t="n">
-        <v>4.840375457618697</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I25" t="n">
-        <v>16.37214929836671</v>
+        <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
         <v>38.49038848047095</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354489</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823736</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069441</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N25" t="n">
-        <v>83.31087942545557</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598721</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292339</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464805</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100415</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031732</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T25" t="n">
-        <v>2.326151804786079</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U25" t="n">
         <v>0.02969555495471595</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.213687673191068</v>
+        <v>1.213687673191069</v>
       </c>
       <c r="H26" t="n">
-        <v>12.42967888306803</v>
+        <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
         <v>46.79069402069872</v>
       </c>
       <c r="J26" t="n">
-        <v>103.0102241525005</v>
+        <v>103.0102241525006</v>
       </c>
       <c r="K26" t="n">
         <v>154.3856233586785</v>
@@ -32968,16 +32970,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108853</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6569078528415</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393905</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09709501385528546</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757689</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H27" t="n">
         <v>6.271645177087033</v>
@@ -33023,7 +33025,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J27" t="n">
-        <v>61.35218381454667</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
@@ -33035,7 +33037,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N27" t="n">
-        <v>168.8929552025812</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
         <v>154.5040580932971</v>
@@ -33044,10 +33046,10 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.89280709988236</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R27" t="n">
-        <v>40.3185327551517</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S27" t="n">
         <v>12.06195155538763</v>
@@ -33056,7 +33058,7 @@
         <v>2.61745772831198</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04272237859051113</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33095,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031251</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H28" t="n">
-        <v>4.840375457618697</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I28" t="n">
-        <v>16.37214929836671</v>
+        <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
         <v>38.49038848047095</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354489</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L28" t="n">
-        <v>80.94018428823736</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069441</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N28" t="n">
-        <v>83.31087942545557</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598721</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292339</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464805</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R28" t="n">
         <v>24.47903580100415</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031732</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T28" t="n">
-        <v>2.326151804786079</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U28" t="n">
         <v>0.02969555495471595</v>
@@ -34708,10 +34710,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35489,7 +35491,7 @@
         <v>60.60559248828881</v>
       </c>
       <c r="K12" t="n">
-        <v>167.9114421664588</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651352</v>
@@ -35501,7 +35503,7 @@
         <v>516.8936174628014</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>342.197122882698</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35735,13 +35737,13 @@
         <v>488.1091505729033</v>
       </c>
       <c r="N15" t="n">
-        <v>453.3206074199175</v>
+        <v>516.8936174628014</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788802</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K17" t="n">
-        <v>258.4411848848627</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
         <v>373.4238170675629</v>
@@ -35893,13 +35895,13 @@
         <v>432.2802359107711</v>
       </c>
       <c r="N17" t="n">
-        <v>424.4951865620587</v>
+        <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
         <v>355.1946887874304</v>
       </c>
       <c r="P17" t="n">
-        <v>265.0955169306803</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
         <v>121.0739155037673</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828881</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>14.92312141674883</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M18" t="n">
-        <v>488.1091505729033</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628014</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -35981,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.9883207497099</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766203</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36057,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781688</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788802</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K20" t="n">
-        <v>258.4411848848627</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
         <v>373.4238170675629</v>
@@ -36130,13 +36132,13 @@
         <v>432.2802359107711</v>
       </c>
       <c r="N20" t="n">
-        <v>424.4951865620587</v>
+        <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
         <v>355.1946887874304</v>
       </c>
       <c r="P20" t="n">
-        <v>265.0955169306803</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
         <v>121.0739155037673</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828881</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K21" t="n">
-        <v>14.92312141674883</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729033</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628014</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
@@ -36218,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.9883207497099</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766203</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781688</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788802</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K23" t="n">
-        <v>258.4411848848627</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
         <v>373.4238170675629</v>
@@ -36367,13 +36369,13 @@
         <v>432.2802359107711</v>
       </c>
       <c r="N23" t="n">
-        <v>424.4951865620587</v>
+        <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
         <v>355.1946887874304</v>
       </c>
       <c r="P23" t="n">
-        <v>265.0955169306803</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
         <v>121.0739155037673</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828881</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
-        <v>271.5478197803094</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628014</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36455,7 +36457,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.9883207497099</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766203</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781688</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788802</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K26" t="n">
-        <v>258.4411848848627</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
         <v>373.4238170675629</v>
@@ -36604,13 +36606,13 @@
         <v>432.2802359107711</v>
       </c>
       <c r="N26" t="n">
-        <v>424.4951865620587</v>
+        <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
         <v>355.1946887874304</v>
       </c>
       <c r="P26" t="n">
-        <v>265.0955169306803</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q26" t="n">
         <v>121.0739155037673</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828881</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>14.9231214167495</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M27" t="n">
-        <v>488.1091505729033</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628014</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>244.9184791209674</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766203</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781688</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>75.52871390503742</v>
+        <v>75.52871390503832</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651352</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>167.9114421664584</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651352</v>
@@ -37166,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651352</v>
@@ -37394,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37403,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K42" t="n">
-        <v>228.5170346547477</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651352</v>
@@ -37877,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788805</v>
+        <v>91.0609347978879</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
